--- a/results/Preliminaries-Bulgaria.xlsx
+++ b/results/Preliminaries-Bulgaria.xlsx
@@ -48,52 +48,52 @@
     <t>2017</t>
   </si>
   <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>DPS</t>
-  </si>
-  <si>
-    <t>DSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB </t>
-  </si>
-  <si>
-    <t>NDS</t>
-  </si>
-  <si>
-    <t>ODS</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK </t>
-  </si>
-  <si>
-    <t>ABV</t>
-  </si>
-  <si>
-    <t>BBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP </t>
-  </si>
-  <si>
-    <t>Wil</t>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)</t>
+  </si>
+  <si>
+    <t>PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>Will - Will (Volya, Will)</t>
   </si>
   <si>
     <t>Key</t>
@@ -129,1309 +129,1309 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t>BNS+DPS</t>
-  </si>
-  <si>
-    <t>BNS+DSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+KB </t>
-  </si>
-  <si>
-    <t>BNS+NDS</t>
-  </si>
-  <si>
-    <t>BNS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB </t>
-  </si>
-  <si>
-    <t>DPS+NDS</t>
-  </si>
-  <si>
-    <t>DPS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSB+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSB+KB </t>
-  </si>
-  <si>
-    <t>DSB+NDS</t>
-  </si>
-  <si>
-    <t>DSB+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB </t>
-  </si>
-  <si>
-    <t>KA +NDS</t>
-  </si>
-  <si>
-    <t>KA +ODS</t>
-  </si>
-  <si>
-    <t>KB +NDS</t>
-  </si>
-  <si>
-    <t>KB +ODS</t>
-  </si>
-  <si>
-    <t>NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+KB </t>
-  </si>
-  <si>
-    <t>BNS+DPS+NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DSB+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DSB+KB </t>
-  </si>
-  <si>
-    <t>BNS+DSB+NDS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+KA +KB </t>
-  </si>
-  <si>
-    <t>BNS+KA +NDS</t>
-  </si>
-  <si>
-    <t>BNS+KA +ODS</t>
-  </si>
-  <si>
-    <t>BNS+KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+DSB+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+DSB+KB </t>
-  </si>
-  <si>
-    <t>DPS+DSB+NDS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB </t>
-  </si>
-  <si>
-    <t>DPS+KA +NDS</t>
-  </si>
-  <si>
-    <t>DPS+KA +ODS</t>
-  </si>
-  <si>
-    <t>DPS+KB +NDS</t>
-  </si>
-  <si>
-    <t>DPS+KB +ODS</t>
-  </si>
-  <si>
-    <t>DPS+NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSB+KA +KB </t>
-  </si>
-  <si>
-    <t>DSB+KA +NDS</t>
-  </si>
-  <si>
-    <t>DSB+KA +ODS</t>
-  </si>
-  <si>
-    <t>DSB+KB +NDS</t>
-  </si>
-  <si>
-    <t>DSB+KB +ODS</t>
-  </si>
-  <si>
-    <t>DSB+NDS+ODS</t>
-  </si>
-  <si>
-    <t>KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+DSB+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+DSB+KB </t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+KA +KB </t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DSB+KA +KB </t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+DSB+KA +KB </t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +NDS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KB +NDS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KB +ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>DPS+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>DPS+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DSB+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>DSB+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>DSB+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DSB+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNS+DPS+DSB+KA +KB </t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DSB+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +KB +NDS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +KB +ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DSB+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+DSB+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>BNS+DPS+DSB+KA +KB +NDS+ODS</t>
-  </si>
-  <si>
-    <t>DPS+GER</t>
-  </si>
-  <si>
-    <t>DPS+RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB </t>
-  </si>
-  <si>
-    <t>GER+RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+SK </t>
-  </si>
-  <si>
-    <t>KA +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +SK </t>
-  </si>
-  <si>
-    <t>KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB </t>
-  </si>
-  <si>
-    <t>DPS+GER+RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+SK </t>
-  </si>
-  <si>
-    <t>DPS+KA +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +SK </t>
-  </si>
-  <si>
-    <t>DPS+KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB </t>
-  </si>
-  <si>
-    <t>GER+KA +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +SK </t>
-  </si>
-  <si>
-    <t>GER+KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+RZS+SK </t>
-  </si>
-  <si>
-    <t>KA +KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB </t>
-  </si>
-  <si>
-    <t>DPS+GER+KA +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +SK </t>
-  </si>
-  <si>
-    <t>DPS+GER+KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+RZS+SK </t>
-  </si>
-  <si>
-    <t>DPS+KA +KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +RZS+SK </t>
-  </si>
-  <si>
-    <t>GER+KA +KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB +RZS+SK </t>
-  </si>
-  <si>
-    <t>DPS+GER+KA +KB +RZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB +SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB +RZS+SK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB +RZS+SK </t>
-  </si>
-  <si>
-    <t>ABV+BBT</t>
-  </si>
-  <si>
-    <t>ABV+DPS</t>
-  </si>
-  <si>
-    <t>ABV+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+RB </t>
-  </si>
-  <si>
-    <t>BBT+DPS</t>
-  </si>
-  <si>
-    <t>BBT+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF +RB </t>
-  </si>
-  <si>
-    <t>ABV+BBT+DPS</t>
-  </si>
-  <si>
-    <t>ABV+BBT+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+RB </t>
-  </si>
-  <si>
-    <t>ABV+DPS+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+PF +RB </t>
-  </si>
-  <si>
-    <t>BBT+DPS+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +PF +RB </t>
-  </si>
-  <si>
-    <t>ABV+BBT+DPS+GER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +KB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +KB +PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +KB +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+DPS+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBT+DPS+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABV+BBT+DPS+GER+KA +KB +PF +RB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+OP </t>
-  </si>
-  <si>
-    <t>DPS+Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+OP </t>
-  </si>
-  <si>
-    <t>GER+Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KB +OP </t>
-  </si>
-  <si>
-    <t>KB +Wil</t>
-  </si>
-  <si>
-    <t>OP +Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+OP </t>
-  </si>
-  <si>
-    <t>DPS+GER+Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+KB +OP </t>
-  </si>
-  <si>
-    <t>DPS+KB +Wil</t>
-  </si>
-  <si>
-    <t>DPS+OP +Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER+KB +OP </t>
-  </si>
-  <si>
-    <t>GER+KB +Wil</t>
-  </si>
-  <si>
-    <t>GER+OP +Wil</t>
-  </si>
-  <si>
-    <t>KB +OP +Wil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPS+GER+KB +OP </t>
-  </si>
-  <si>
-    <t>DPS+GER+KB +Wil</t>
-  </si>
-  <si>
-    <t>DPS+GER+OP +Wil</t>
-  </si>
-  <si>
-    <t>DPS+KB +OP +Wil</t>
-  </si>
-  <si>
-    <t>GER+KB +OP +Wil</t>
-  </si>
-  <si>
-    <t>DPS+GER+KB +OP +Wil</t>
-  </si>
-  <si>
-    <t>('DSB+KA +KB ', 'BNS+DPS+NDS+ODS')</t>
-  </si>
-  <si>
-    <t>('BNS+DPS+NDS+ODS', 'DSB+KA +KB ')</t>
-  </si>
-  <si>
-    <t>('DPS+KB ', 'GER+KA ')</t>
-  </si>
-  <si>
-    <t>('GER+KA ', 'DPS+KB ')</t>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RZS - Order, Law and Justice (Red, Zakonnost I Spravedlivost, RZS)+SK - Blue Coalition (Sinyata Koalitzia, SK)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>ABV - ABV-Alternative for Bulgarian Revival (Alternativa Za Bulgarsko Vuzrazhdane, ABV)+BBT - Bulgaria without Censorship (Bulgaria Without Censorship-VMRO-BNU-Gergovden, BBT)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+PF - Patriotic Front (Patriotichen Front, PF)+RB - Reformist Bloc (Reformatorski Blok, RB)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)+OP - United Patriots  (Obedineni Patrioti, OP)+Will - Will (Volya, Will)</t>
+  </si>
+  <si>
+    <t>("DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)", "BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)")</t>
+  </si>
+  <si>
+    <t>("BNS - Coalition Bulgarian People's Union (Koalitsiya Bulgarski Naroden Suyoz , BNS)+DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+NDSV - National Movement for Stability and Progress (Nacionalno dviženie za stabilnost i văzhod, NDSV)+ODS - United Democratic Forces (Obedineni Demokratichni Sili, ODS)", "DSB - Democrats for Strong Bulgaria (Demokrati za Silna Bulgaria, DSB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)")</t>
+  </si>
+  <si>
+    <t>('DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)', "GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)")</t>
+  </si>
+  <si>
+    <t>("GERB - Citizens for a European Development of Bulgaria (Grazhdani za Evropeisko Razvitie na Bulgaria, GERB)+KA - Coalition Attack (Koalitsiya 'Ataka', KA)", 'DPS - Movement for Rights and Freedoms (Dvizehnie za Prava i Svobodi, DPS)+KB - Coalition for Bulgaria (Koalitsia za Bulgaria, KB)')</t>
   </si>
 </sst>
 </file>
